--- a/pred_ohlcv/54_21/2019-10-26 OMG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 OMG ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>14867.8598</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>14571.298</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>14302.3341</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>14307.1018</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>12400.9012</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>11775.3841</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>11875.2054</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>12059.8024</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>12055.042</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>13021.5558</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>13033.0438</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>13033.0438</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>13049.7707</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>13051.9228</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>12051.9228</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>12125.4323</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>12125.4323</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>12160.9174</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>12194.5773</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>12210.2565</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>12053.7987</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>12164.3177</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>13381.9784</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>12956.1985</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>15789.66048260427</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>15595.92598260427</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>16872.72538260427</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>15447.45298260427</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>14471.99168260427</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>14471.99168260427</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>10935.74398260427</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>10989.09938260427</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>12377.76534889526</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>23536.99394889526</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>23504.30394889526</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>23575.29424889526</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>23301.60444889526</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>23763.76614889526</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>23505.70514889526</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>22930.20514889526</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>23401.26344889526</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>23401.26344889526</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>23417.86914889526</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>25147.83124889526</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>25508.63564889526</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>25352.84984889526</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>24136.53604889526</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>23637.39124889526</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>24636.27744889526</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>24428.40204889526</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>31799.49614889525</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>32825.19234889525</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>30827.25834889525</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>30827.25834889525</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>31004.95464889525</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>30943.36454889525</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>30915.95114889525</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>30777.67554889525</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>28964.70134889525</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>28521.17224889525</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>28522.28224889525</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>28553.20214889525</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>28872.59764889525</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>28872.59764889525</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>29350.11564889525</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>29340.11564889525</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>29683.69444889525</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>29683.69444889525</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>29683.69444889525</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>29683.69444889525</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>29683.69444889525</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>29683.69444889525</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>29714.15584889525</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>30314.15584889525</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>30296.57954889525</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>30165.46134889525</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>29856.51344889525</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>29856.51344889525</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>30055.85774889525</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>30057.43804889525</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>30048.56674889525</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>29840.65904889525</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>30781.03994889525</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>31758.93652181402</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>31796.93652181402</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>31796.93652181402</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>31796.93652181402</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>31831.86962181402</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>31671.75492181402</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>32291.35492181402</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>32291.35492181402</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>32165.49652181402</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>32655.21482181402</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>32129.82842181402</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>31852.53322181402</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>31852.53322181402</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>31835.77202181402</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>31835.77202181402</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>31786.24362181402</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>31786.24362181402</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>34010.96112181402</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>33757.47402181402</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>33628.91762181402</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>33630.21762181402</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>31430.21762181402</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>31862.33172181402</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>31853.86872181402</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>30777.33522181402</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>31127.33522181402</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>31128.33522181402</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>31128.33522181402</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>31128.33522181402</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>31028.33522181402</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>31022.78572181402</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>31034.62872181402</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>31034.62872181402</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>31440.78862181402</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>31454.71182181402</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>31454.71182181402</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>31471.82332181402</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>31440.31412181402</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>31450.64132181402</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>31532.26732181402</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>31532.26732181402</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>30631.23072181402</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>30660.49712181402</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>30660.49712181402</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>30632.40522181402</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>30627.93992181402</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>30619.93992181402</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 OMG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 OMG ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>14867.8598</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>14571.298</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>14302.3341</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>14307.1018</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>12400.9012</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>11775.3841</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>11875.2054</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>12059.8024</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>12055.042</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>13021.5558</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>13033.0438</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>13033.0438</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>13049.7707</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>13051.9228</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>12051.9228</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>12125.4323</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>12125.4323</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>12160.9174</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>12194.5773</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>12210.2565</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>12053.7987</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>12164.3177</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>13381.9784</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>12956.1985</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>15789.66048260427</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>15595.92598260427</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>15614.92538260427</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>16872.72538260427</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>15447.45298260427</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>14425.61958260427</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>14471.99168260427</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>10969.86198260427</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>11362.32258260427</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>11380.94858260427</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>11380.94858260427</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>23536.99394889526</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>23504.30394889526</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>23580.46454889526</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>23575.29424889526</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>23301.60444889526</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>23763.76614889526</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>23763.76614889526</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>23505.70514889526</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>22930.20514889526</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>23401.26344889526</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>23401.26344889526</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>23417.86914889526</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>25147.83124889526</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>25508.63564889526</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>25352.84984889526</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>24136.53604889526</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>23637.39124889526</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>31799.49614889525</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>32825.19234889525</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>30827.25834889525</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>30827.25834889525</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>31004.95464889525</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>30943.36454889525</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>30915.95114889525</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>30777.67554889525</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>28964.70134889525</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>30314.15584889525</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>30296.57954889525</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
